--- a/Dokumente/Arbeitsplan_MA.xlsx
+++ b/Dokumente/Arbeitsplan_MA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d2576a69b16eae8/Dokumente/Maturaarbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d2576a69b16eae8/Dokumente/Maturaarbeit/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="14_{B69817CF-F711-4B34-9673-4D264F4E7FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15820E77-38AD-4DD0-9A19-8B93A3914672}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{484CA59F-C05D-411F-A091-EA9FFF98A03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21855" yWindow="2715" windowWidth="17700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitszeiten" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -346,24 +346,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -372,15 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,10 +397,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScale="115" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="130" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -1352,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C49A98E-16C0-4CE4-A7BF-5D53C591BB07}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1408,7 +1404,7 @@
         <f>D6</f>
         <v>3</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="17">
         <v>45030</v>
       </c>
     </row>
@@ -1426,10 +1422,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E7:E16" si="0">D7+E6</f>
+        <f t="shared" ref="E7:E15" si="0">D7+E6</f>
         <v>19</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="17">
         <v>45060</v>
       </c>
     </row>
@@ -1450,15 +1446,15 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="17">
         <v>45075</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="22">
         <f>SUM(D9:D11)</f>
         <v>44</v>
       </c>
@@ -1472,13 +1468,13 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="17">
         <v>45092</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1489,13 +1485,13 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="17">
         <v>45109</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
@@ -1506,15 +1502,15 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="17">
         <v>45126</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="25">
         <f>SUM(D12:D14)</f>
         <v>28</v>
       </c>
@@ -1528,13 +1524,13 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="17">
         <v>45128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
@@ -1545,13 +1541,13 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="17">
         <v>45148</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
@@ -1562,7 +1558,7 @@
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="17">
         <v>45172</v>
       </c>
     </row>
@@ -1583,22 +1579,22 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="17">
         <v>45179</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="18">
         <f>D16+E15</f>
         <v>111</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
